--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497002165506</v>
+        <v>17497072356648</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T08:50:16.480407</t>
+          <t>2025-06-12T10:47:15.600583</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497002165404</v>
+        <v>17497072356205</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T08:50:16.495342</t>
+          <t>2025-06-12T10:47:15.616203</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497002165853</v>
+        <v>17497072356462</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T08:50:16.510574</t>
+          <t>2025-06-12T10:47:15.618645</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497002166005</v>
+        <v>17497072356286</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T08:50:16.520779</t>
+          <t>2025-06-12T10:47:15.622597</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497002165507</v>
+        <v>17497072356725</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,12 +622,44 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T08:50:16.537692</t>
+          <t>2025-06-12T10:47:15.631383</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Farzandlar soni: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17497073468052</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jaxongir Turgunboyev</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>turgunboyevv7:gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O'quvchi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-06-12T10:49:06.716607</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sinf: 11-A</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497072356648</v>
+        <v>17497390502946</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T10:47:15.600583</t>
+          <t>2025-06-12T19:37:30.260328</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497072356205</v>
+        <v>17497390503303</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T10:47:15.616203</t>
+          <t>2025-06-12T19:37:30.268960</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497072356462</v>
+        <v>17497390503089</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T10:47:15.618645</t>
+          <t>2025-06-12T19:37:30.277856</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497072356286</v>
+        <v>17497390503278</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T10:47:15.622597</t>
+          <t>2025-06-12T19:37:30.300843</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497072356725</v>
+        <v>17497390503908</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T10:47:15.631383</t>
+          <t>2025-06-12T19:37:30.310955</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -633,16 +633,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17497073468052</v>
+        <v>17497392620129</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jaxongir Turgunboyev</t>
+          <t>Turgunboyev Jaxongir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>turgunboyevv7:gmail.com</t>
+          <t>turgunboyevv7@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,12 +654,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-12T10:49:06.716607</t>
+          <t>2025-06-12T19:41:01.945494</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sinf: 11-A</t>
+          <t>Sinf: 10-A</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497390502946</v>
+        <v>17497405751279</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T19:37:30.260328</t>
+          <t>2025-06-12T20:02:55.094062</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497390503303</v>
+        <v>17497405751440</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T19:37:30.268960</t>
+          <t>2025-06-12T20:02:55.109567</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497390503089</v>
+        <v>17497405751695</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T19:37:30.277856</t>
+          <t>2025-06-12T20:02:55.118079</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497390503278</v>
+        <v>17497405751980</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T19:37:30.300843</t>
+          <t>2025-06-12T20:02:55.126544</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497390503908</v>
+        <v>17497405751465</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,44 +622,12 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T19:37:30.310955</t>
+          <t>2025-06-12T20:02:55.141948</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Farzandlar soni: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>17497392620129</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Turgunboyev Jaxongir</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>turgunboyevv7@gmail.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>O'quvchi</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-06-12T19:41:01.945494</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Sinf: 10-A</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497405751279</v>
+        <v>17497420475407</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T20:02:55.094062</t>
+          <t>2025-06-12T20:27:27.506542</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497405751440</v>
+        <v>17497420475965</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T20:02:55.109567</t>
+          <t>2025-06-12T20:27:27.510557</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497405751695</v>
+        <v>17497420476005</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T20:02:55.118079</t>
+          <t>2025-06-12T20:27:27.529979</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497405751980</v>
+        <v>17497420475899</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T20:02:55.126544</t>
+          <t>2025-06-12T20:27:27.545743</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497405751465</v>
+        <v>17497420475957</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,12 +622,44 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T20:02:55.141948</t>
+          <t>2025-06-12T20:27:27.547315</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Farzandlar soni: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17497421237635</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jasurbek Turgunboyev</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>turgunboyevv777@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O'quvchi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-06-12T20:28:43.704770</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sinf: 9-A</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foydalanuvchilar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vazifalar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baholar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +479,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497420475407</v>
+        <v>17497426867443</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +500,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T20:27:27.506542</t>
+          <t>2025-06-12T20:38:06.670097</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497420475965</v>
+        <v>17497426867300</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +528,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T20:27:27.510557</t>
+          <t>2025-06-12T20:38:06.672086</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +539,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497420476005</v>
+        <v>17497426867120</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +560,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T20:27:27.529979</t>
+          <t>2025-06-12T20:38:06.674027</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +571,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497420475899</v>
+        <v>17497426866741</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +592,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T20:27:27.545743</t>
+          <t>2025-06-12T20:38:06.683300</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +603,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497420475957</v>
+        <v>17497426867633</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,7 +624,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T20:27:27.547315</t>
+          <t>2025-06-12T20:38:06.698381</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -633,16 +635,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17497421237635</v>
+        <v>17497427421401</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jasurbek Turgunboyev</t>
+          <t>Failiya ism</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>turgunboyevv777@gmail.com</t>
+          <t>ism@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,12 +656,194 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-12T20:28:43.704770</t>
+          <t>2025-06-12T20:39:02.051632</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Sinf: 9-A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sarlavha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fan</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SinfID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Muddat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qiyinlik</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>OqituvchiID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TopshiriqlarSoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17497428368651</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>something new</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Matematika</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9-A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-06-13T23:59:59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>oson</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>17497426867300</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>OquvchiID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fan</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Baho</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sana</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OqituvchiID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Izoh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17497431390030</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17497427421401</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Matematika</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-06-12T20:45:38.974973</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>17497426867300</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>yomon emas</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foydalanuvchilar" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vazifalar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baholar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17497426867443</v>
+        <v>17498929160244</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -500,14 +498,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-12T20:38:06.670097</t>
+          <t>2025-06-14T14:21:55.950687</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17497426867300</v>
+        <v>17498929160106</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-12T20:38:06.672086</t>
+          <t>2025-06-14T14:21:55.967239</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -539,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17497426867120</v>
+        <v>17498929160372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -560,7 +558,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-12T20:38:06.674027</t>
+          <t>2025-06-14T14:21:55.987006</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -571,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17497426866741</v>
+        <v>17498929160370</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -592,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-12T20:38:06.683300</t>
+          <t>2025-06-14T14:21:56.003040</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -603,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17497426867633</v>
+        <v>17498929160130</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -624,7 +622,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-12T20:38:06.698381</t>
+          <t>2025-06-14T14:21:56.019283</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -635,16 +633,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17497427421401</v>
+        <v>17498930121651</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Failiya ism</t>
+          <t>turgunboyev jaxon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ism@gmail.com</t>
+          <t>turgunboyevv@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -656,194 +654,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-12T20:39:02.051632</t>
+          <t>2025-06-14T14:23:32.097503</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Sinf: 9-A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sarlavha</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fan</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SinfID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Muddat</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qiyinlik</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OqituvchiID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TopshiriqlarSoni</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>17497428368651</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>something new</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Matematika</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9-A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-06-13T23:59:59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>oson</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>17497426867300</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>OquvchiID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fan</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Baho</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sana</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OqituvchiID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Izoh</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>17497431390030</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17497427421401</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Matematika</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-06-12T20:45:38.974973</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>17497426867300</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>yomon emas</t>
         </is>
       </c>
     </row>

--- a/edu_platform_data.xlsx
+++ b/edu_platform_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foydalanuvchilar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vazifalar" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17498929160244</v>
+        <v>17498973042799</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,14 +499,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-14T14:21:55.950687</t>
+          <t>2025-06-14T15:35:04.235873</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17498929160106</v>
+        <v>17498973043058</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,7 +527,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-14T14:21:55.967239</t>
+          <t>2025-06-14T15:35:04.251816</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,7 +538,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17498929160372</v>
+        <v>17498973043318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,7 +559,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-14T14:21:55.987006</t>
+          <t>2025-06-14T15:35:04.267688</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,7 +570,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17498929160370</v>
+        <v>17498973043476</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,7 +591,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-14T14:21:56.003040</t>
+          <t>2025-06-14T15:35:04.283543</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +602,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17498929160130</v>
+        <v>17498973043335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,7 +623,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-14T14:21:56.019283</t>
+          <t>2025-06-14T15:35:04.299694</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -633,16 +634,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17498930121651</v>
+        <v>17498974348613</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>turgunboyev jaxon</t>
+          <t>turgunboyevv jaxongir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>turgunboyevv@gmail.com</t>
+          <t>turgunboyevv777@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,13 +655,142 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-14T14:23:32.097503</t>
+          <t>2025-06-14T15:37:14.865382</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Sinf: 9-A</t>
         </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17498974482811</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>O'quvchi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-06-14T15:37:28.276827</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sinf: 0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sarlavha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fan</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SinfID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Muddat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qiyinlik</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>OqituvchiID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TopshiriqlarSoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17498976374632</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>assignment</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Matematika</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9-A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-06-15T23:59:59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>qiyin</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>17498973043058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
